--- a/data/trans_bre/P19C09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,67%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,5%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 3,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 2,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 2,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,96; 129,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,35; 216,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,0; 133,3</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,34</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>105,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,58%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 0,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 2,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 0,07</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,1; 27,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,48; 278,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,57; 6,5</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>128,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,43%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 4,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 2,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 4,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,2; 602,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,29; 137,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,6; 282,7</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,8%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,68%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 1,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,33; 1,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 0,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,64; 66,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,93; 137,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,62; 30,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P19C09-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19C09-Estudios-trans_bre.xlsx
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,18</t>
+          <t>-0,89; 3,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,51</t>
+          <t>-0,47; 2,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,56</t>
+          <t>-1,57; 2,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,96; 129,82</t>
+          <t>-19,44; 114,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,35; 216,37</t>
+          <t>-16,57; 236,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,0; 133,3</t>
+          <t>-42,41; 130,75</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 0,46</t>
+          <t>-1,97; 0,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,46</t>
+          <t>0,38; 2,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,07</t>
+          <t>-1,99; 0,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-60,1; 27,92</t>
+          <t>-59,48; 36,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,48; 278,69</t>
+          <t>11,2; 272,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-58,57; 6,5</t>
+          <t>-57,87; 5,69</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 4,69</t>
+          <t>-0,01; 4,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 2,5</t>
+          <t>-2,44; 2,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 4,26</t>
+          <t>-0,84; 4,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 602,77</t>
+          <t>-20,02; 557,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-55,29; 137,44</t>
+          <t>-59,9; 134,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-20,6; 282,7</t>
+          <t>-23,94; 260,77</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,44</t>
+          <t>-0,39; 1,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,98</t>
+          <t>0,31; 1,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 0,73</t>
+          <t>-1,06; 0,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 66,92</t>
+          <t>-12,32; 68,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,93; 137,75</t>
+          <t>13,46; 150,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 30,5</t>
+          <t>-32,93; 31,31</t>
         </is>
       </c>
     </row>
